--- a/biology/Botanique/Nothoscordum_borbonicum/Nothoscordum_borbonicum.xlsx
+++ b/biology/Botanique/Nothoscordum_borbonicum/Nothoscordum_borbonicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nothoscordum borbonicum est une espèce de la famille des Amaryllidaceae. Il a été naturalisé comme une adventice cosmopolite[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nothoscordum borbonicum est une espèce de la famille des Amaryllidaceae. Il a été naturalisé comme une adventice cosmopolite.
 Nothoscordum borbonicum est originaire d'Amérique du Sud et est maintenant présente en Europe méridionale et en Afrique septentrionale.
 .
 </t>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante pérenne à bulbe odorant. Les fleurs blanchâtres sont délicatement parfumées. Les pétales et les sépales sont brièvement soudés à la base et l'ovaire est supère. Ces caractéristiques le distingue et le place comme une espèce intermédiaire entre les genres Allium et Narcissus. Sa hauteur maximum est de 1 m avec une tige longue et cylindrique. Les feuilles sont basales, rubanées, obtuses, glauques de 20 à 40 cm de long sur 4 à 10 cm de large. L'inflorescence est une ombelle de 3 à 20 fleurs, lâche, dressée, à pédoncules inégaux. Les fleurs qui s'ouvrent l'après midi sont longues de 10 à 15 cm blanches striées de pourpre à fond verdâtre ou jaunâtre, avec 3 sépales pétaloïdes et 3 pétales soudés ensemble à la base. 6 étamines à anthères pourpres, le style est inséré au sommet de l'ovaire supère. Les fruits sont des capsules à 3 loges. Les graines sont rudes et anguleuses.
 </t>
@@ -544,12 +558,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Nothoscordum borbonicum Kunth[2].
-Les dénominations Nothoscordum fragrans et Nothoscordum gracile ont également été appliquées à cette plante[1],[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Ail odorant[2],[4],[5], Nothoscordum de la Reunion[4], Ail inodore[4], Nothoscordum inodore[4],[6], ail marron[6], ail bâtard[6], ail parfumé[6]. Il est aussi dénommé en anglais honeybells, fragrant false garlic et onion weed.
-Nothoscordum borbonicum a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Nothoscordum borbonicum Kunth.
+Les dénominations Nothoscordum fragrans et Nothoscordum gracile ont également été appliquées à cette plante,.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Ail odorant Nothoscordum de la Reunion, Ail inodore, Nothoscordum inodore ail marron, ail bâtard, ail parfumé. Il est aussi dénommé en anglais honeybells, fragrant false garlic et onion weed.
+Nothoscordum borbonicum a pour synonymes :
 Allium ×fragrans Bojer
 Milla ×borbonica (Kunth) Baker
 Nothoscordum ×nidulans Phil.</t>
@@ -580,7 +596,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nothoscordum borbonicum est utilisée comme espèce ornementale, mais est naturalisée sur les bords des chemins, décombres, pelouses près du littoral.
 </t>
